--- a/thresholds/AL/german/german-thresholds.xlsx
+++ b/thresholds/AL/german/german-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,42 +658,42 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AY 01,22,32,42</t>
+          <t>P2 60</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AZ 01,23,33,43</t>
+          <t>AY 01,22,32,42</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -720,6 +720,41 @@
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AZ 01,23,33,43</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>166</v>
+      </c>
+      <c r="D9" t="n">
+        <v>149</v>
+      </c>
+      <c r="E9" t="n">
+        <v>132</v>
+      </c>
+      <c r="F9" t="n">
+        <v>116</v>
+      </c>
+      <c r="G9" t="n">
+        <v>101</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
